--- a/document/音效.xlsx
+++ b/document/音效.xlsx
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>音效说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>危险</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>白天</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -42,11 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>世界和平
-风调雨顺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>背景BGM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -55,26 +46,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>条件偶发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>条件镜头触发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>镜头拖到相应位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一直循环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>满足条件一直循环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>crowdscream1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,16 +78,44 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8min抽一个放一次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>女人哭
-僵尸相关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸相关</t>
+    <t>womanscream1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖小屋女人哭
+僵尸相关（晚上僵尸更多）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸类事件id：1,123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风调雨顺事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10min抽一个放一次
+（很小声）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足条件一直循环
+（小声）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一直循环
+（声音较大）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头拖到相应位置
+（声音中等）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +154,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,29 +271,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,254 +604,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="18.875" style="1" customWidth="1"/>
+    <col min="1" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>9</v>
+      <c r="E19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8"/>
+      <c r="B25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
-      <c r="B25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="5"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="5"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="B30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+      <c r="B35" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="5"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="5"/>
-      <c r="B35" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="7"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="7"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C21:C38"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="F30:F38"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+  <mergeCells count="12">
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B29"/>
     <mergeCell ref="B30:B34"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C21:C38"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/音效.xlsx
+++ b/document/音效.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>音效说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>womanscream1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mainbgm1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,16 +74,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>womanscream1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>偶发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐怖小屋女人哭
-僵尸相关（晚上僵尸更多）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -115,7 +102,46 @@
   </si>
   <si>
     <t>镜头拖到相应位置
+每5分钟仅能触发一次
 （声音中等）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角恐怖小屋womancry1
+右上角山谷womanscream1
+僵尸相关的音效（晚上僵尸更多）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规button点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取道具点击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>button1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作者介绍音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事背景介绍音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>makersound1 放一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storybackground1 故事滚动，音效放一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +297,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,9 +319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -289,6 +327,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -298,29 +342,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,23 +627,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="18.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="11" customWidth="1"/>
     <col min="6" max="6" width="24.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
@@ -631,8 +685,8 @@
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>14</v>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
@@ -641,202 +695,198 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="C19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="8"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="8"/>
-      <c r="B25" s="10" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="4" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="8"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="8"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="8"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="8"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8"/>
-      <c r="B35" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="8"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="8"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="14"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="9"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
